--- a/outputs/complete_lists/Older Adults/OA S020.xlsx
+++ b/outputs/complete_lists/Older Adults/OA S020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amuller\Desktop\Alana\UA\R_projects\inflatable-project\outputs\complete_lists\Older Adults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C758897-ED65-4999-BC89-1B081DA54A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E828565F-E436-4905-AF5B-BC812B3DC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54560" yWindow="2440" windowWidth="26200" windowHeight="18260"/>
+    <workbookView xWindow="19270" yWindow="780" windowWidth="18120" windowHeight="19990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ten_lists" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="137">
   <si>
     <t>DD_#</t>
   </si>
@@ -424,13 +424,19 @@
     <t>no walk/diff</t>
   </si>
   <si>
-    <t>S000</t>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>start DD</t>
+  </si>
+  <si>
+    <t>start SD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1280,19 +1286,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:K36"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
@@ -1307,10 +1315,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" t="s">
         <v>130</v>
       </c>
-      <c r="I3" t="s">
-        <v>131</v>
+      <c r="K3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1453,8 +1467,14 @@
       <c r="C10" t="s">
         <v>131</v>
       </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="K10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1595,10 +1615,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>136</v>
       </c>
       <c r="I17" t="s">
         <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1739,10 +1765,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>135</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="K24" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1883,10 +1915,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
       </c>
       <c r="I31" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
